--- a/MyGRADESHEET 1.xlsx
+++ b/MyGRADESHEET 1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Desktop\Gradebook\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
   <si>
     <t>MA Expanded Student Grade Report</t>
   </si>
@@ -133,45 +133,6 @@
   </si>
   <si>
     <t>Lab 7</t>
-  </si>
-  <si>
-    <t>Lab 8</t>
-  </si>
-  <si>
-    <t>Lab 9</t>
-  </si>
-  <si>
-    <t>Lab 10</t>
-  </si>
-  <si>
-    <t>Lab 11</t>
-  </si>
-  <si>
-    <t>Lab 12</t>
-  </si>
-  <si>
-    <t>Lab 13</t>
-  </si>
-  <si>
-    <t>Lab 14</t>
-  </si>
-  <si>
-    <t>Lab 15</t>
-  </si>
-  <si>
-    <t>Lab 16</t>
-  </si>
-  <si>
-    <t>Lab 17</t>
-  </si>
-  <si>
-    <t>Lab 18</t>
-  </si>
-  <si>
-    <t>Lab 19</t>
-  </si>
-  <si>
-    <t>Lab 20</t>
   </si>
   <si>
     <t>Final Exam</t>
@@ -554,10 +515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BF48"/>
+  <dimension ref="A1:AV48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" zoomScale="74" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -570,12 +531,14 @@
     <col min="7" max="7" width="14.453125" customWidth="1"/>
     <col min="8" max="8" width="13.6328125" customWidth="1"/>
     <col min="30" max="30" width="9.453125" customWidth="1"/>
+    <col min="42" max="42" width="17" customWidth="1"/>
+    <col min="47" max="47" width="11.6328125" customWidth="1"/>
     <col min="53" max="53" width="17.54296875" customWidth="1"/>
     <col min="58" max="58" width="11.453125" customWidth="1"/>
     <col min="59" max="59" width="14.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:58" s="2" customFormat="1" ht="22.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:48" s="2" customFormat="1" ht="22.5" x14ac:dyDescent="0.45">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -589,7 +552,7 @@
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
     </row>
-    <row r="2" spans="1:58" s="2" customFormat="1" ht="22.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:48" s="2" customFormat="1" ht="22.5" x14ac:dyDescent="0.45">
       <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
@@ -634,30 +597,22 @@
       <c r="AK2" s="8"/>
       <c r="AL2" s="8"/>
       <c r="AM2" s="8"/>
-      <c r="AN2" s="8"/>
-      <c r="AO2" s="8"/>
-      <c r="AP2" s="8"/>
-      <c r="AQ2" s="8"/>
-      <c r="AR2" s="8"/>
+      <c r="AN2" s="7"/>
+      <c r="AO2" s="7"/>
+      <c r="AP2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AR2" s="8" t="s">
+        <v>37</v>
+      </c>
       <c r="AS2" s="8"/>
-      <c r="AT2" s="8"/>
+      <c r="AT2" s="8" t="s">
+        <v>38</v>
+      </c>
       <c r="AU2" s="8"/>
-      <c r="AV2" s="8"/>
-      <c r="AW2" s="8"/>
-      <c r="AX2" s="8"/>
-      <c r="BA2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="BC2" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="BD2" s="8"/>
-      <c r="BE2" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="BF2" s="7"/>
-    </row>
-    <row r="3" spans="1:58" s="5" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AV2" s="7"/>
+    </row>
+    <row r="3" spans="1:48" s="5" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -665,19 +620,19 @@
         <v>5</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="J3" s="5" t="s">
         <v>8</v>
@@ -740,7 +695,7 @@
         <v>27</v>
       </c>
       <c r="AD3" s="5" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="AF3" s="5" t="s">
         <v>29</v>
@@ -764,97 +719,70 @@
         <v>35</v>
       </c>
       <c r="AM3" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="AN3" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="AO3" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="AP3" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AR3" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AS3" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="AQ3" s="5" t="s">
+      <c r="AT3" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="AR3" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="AS3" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="AT3" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="AU3" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="AV3" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="AW3" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AX3" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="AY3" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AZ3" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="BC3" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="BD3" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="BE3" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="BF3" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:58" x14ac:dyDescent="0.35">
+      <c r="AU3" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
-    </row>
-    <row r="5" spans="1:58" x14ac:dyDescent="0.35">
+      <c r="D4">
+        <v>100</v>
+      </c>
+      <c r="E4">
+        <v>100</v>
+      </c>
+      <c r="F4">
+        <v>100</v>
+      </c>
+      <c r="G4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
     </row>
-    <row r="7" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
     </row>
-    <row r="8" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
     </row>
-    <row r="10" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
     </row>
-    <row r="11" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
     </row>
-    <row r="13" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
     </row>
-    <row r="14" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
@@ -954,14 +882,15 @@
       <c r="A48" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="AT2:AU2"/>
     <mergeCell ref="D2:H2"/>
     <mergeCell ref="J2:AC2"/>
-    <mergeCell ref="AE2:AX2"/>
-    <mergeCell ref="BC2:BD2"/>
+    <mergeCell ref="AR2:AS2"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="A2:B2"/>
+    <mergeCell ref="AE2:AM2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
